--- a/ApolloQA/Data/RatingManual/GA/OR00020.IsExcessRatingFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00020.IsExcessRatingFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.IsExcessRatingFactors" sheetId="1" r:id="R0e45b20c8c3c433f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.IsExcessRatingFactors" sheetId="1" r:id="R6862ff7095244be5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,21 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Excess Rating</x:v>
+        <x:v>Fleet Size Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Excess Rating Factor</x:v>
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>No</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,10 +34,156 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Yes</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
